--- a/scenarios_and_results/Scenario_low_discount_bio_2005_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_2005_A.xlsx
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0005929226311113651</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0005929226311113651</v>
       </c>
       <c r="M7">
         <v>0.00288049043508653</v>
@@ -1585,7 +1585,7 @@
         <v>0.08683532664061322</v>
       </c>
       <c r="P7">
-        <v>33.17187309040781</v>
+        <v>40.00000000660291</v>
       </c>
       <c r="Q7">
         <v>0.7911168936386571</v>
@@ -1606,7 +1606,7 @@
         <v>40</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>6.828126916195106</v>
       </c>
       <c r="X7">
         <v>0</v>
